--- a/biology/Botanique/Nicolau_Maria_Rubió_i_Tudurí/Nicolau_Maria_Rubió_i_Tudurí.xlsx
+++ b/biology/Botanique/Nicolau_Maria_Rubió_i_Tudurí/Nicolau_Maria_Rubió_i_Tudurí.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicolau_Maria_Rubi%C3%B3_i_Tudur%C3%AD</t>
+          <t>Nicolau_Maria_Rubió_i_Tudurí</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicolau Maria Rubió Tudurí, né à Maó, capitale de l'île de Minorque (Baléares) le 5 février 1891 et mort le 4 mai 1981 à Barcelone, est un architecte, paysagiste et écrivain espagnol[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolau Maria Rubió Tudurí, né à Maó, capitale de l'île de Minorque (Baléares) le 5 février 1891 et mort le 4 mai 1981 à Barcelone, est un architecte, paysagiste et écrivain espagnol.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicolau_Maria_Rubi%C3%B3_i_Tudur%C3%AD</t>
+          <t>Nicolau_Maria_Rubió_i_Tudurí</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Neveu de l'architecte Joan Rubió i Bellver, et frère de l'ingénieur Santiago Rubió i Tudurí, il s'installe à Barcelone. Il est diplômé en 1915 de l'École technique supérieure d'architecture de Barcelone, où il suit  les cours de Francesc d'Assís Galí et de Jean Claude Nicolas Forestier[2]. 
-Il devient professeur d'architecture de jardins de l'École Supérieure des Beaux-Arts de la Mancommunauté de Catalogne. En 1917, il est nommé directeur des Parcs et jardins de la mairie de Barcelone, jusqu'en 1937 durant la guerre d'Espagne[3].
-Il collabore avec Forestier dans l'aménagement urbain et paysager de la montagne de Montjuïc[4] et est le créateur du Turó Park, près de l'avenue Diagonale, à Barcelone[5].
-Sa sépulture est située au cimetière de Sarrià[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neveu de l'architecte Joan Rubió i Bellver, et frère de l'ingénieur Santiago Rubió i Tudurí, il s'installe à Barcelone. Il est diplômé en 1915 de l'École technique supérieure d'architecture de Barcelone, où il suit  les cours de Francesc d'Assís Galí et de Jean Claude Nicolas Forestier. 
+Il devient professeur d'architecture de jardins de l'École Supérieure des Beaux-Arts de la Mancommunauté de Catalogne. En 1917, il est nommé directeur des Parcs et jardins de la mairie de Barcelone, jusqu'en 1937 durant la guerre d'Espagne.
+Il collabore avec Forestier dans l'aménagement urbain et paysager de la montagne de Montjuïc et est le créateur du Turó Park, près de l'avenue Diagonale, à Barcelone.
+Sa sépulture est située au cimetière de Sarrià.
 </t>
         </is>
       </c>
